--- a/portfolios/sml_equity/equity_curves/trend/Bollinger_eq_curve.xlsx
+++ b/portfolios/sml_equity/equity_curves/trend/Bollinger_eq_curve.xlsx
@@ -85911,16 +85911,16 @@
         <v>44186</v>
       </c>
       <c r="B5031">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="C5031">
-        <v>3144889.889066888</v>
+        <v>3144888.696266889</v>
       </c>
       <c r="D5031">
-        <v>3578930.531336915</v>
+        <v>3578764.732136915</v>
       </c>
       <c r="E5031">
-        <v>1.138014575257135</v>
+        <v>1.13796228667331</v>
       </c>
     </row>
     <row r="5032" spans="1:5">
@@ -85928,16 +85928,16 @@
         <v>44187</v>
       </c>
       <c r="B5032">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="C5032">
-        <v>3148815.823615387</v>
+        <v>3148813.468765027</v>
       </c>
       <c r="D5032">
-        <v>3650989.114836912</v>
+        <v>3650827.589836912</v>
       </c>
       <c r="E5032">
-        <v>1.159480045627103</v>
+        <v>1.159429615647819</v>
       </c>
     </row>
     <row r="5033" spans="1:5">
@@ -85948,13 +85948,13 @@
         <v>3670304.773336913</v>
       </c>
       <c r="C5033">
-        <v>3152540.744684826</v>
+        <v>3152538.406654826</v>
       </c>
       <c r="D5033">
         <v>3670304.773336913</v>
       </c>
       <c r="E5033">
-        <v>1.16423706165417</v>
+        <v>1.164237925092082</v>
       </c>
     </row>
     <row r="5034" spans="1:5">
@@ -85965,13 +85965,13 @@
         <v>3188307.92859569</v>
       </c>
       <c r="C5034">
-        <v>3152794.412655825</v>
+        <v>3152792.091207598</v>
       </c>
       <c r="D5034">
         <v>3188307.92859569</v>
       </c>
       <c r="E5034">
-        <v>1.011264139455877</v>
+        <v>1.01126488406487</v>
       </c>
     </row>
   </sheetData>
